--- a/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-14,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,11</t>
+          <t>-6,71; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,08</t>
+          <t>-0,47; 9,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,25</t>
+          <t>-3,32; 5,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 22,44</t>
+          <t>-36,77; 18,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 39,53</t>
+          <t>-2,99; 75,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 23,65</t>
+          <t>-17,01; 38,5</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,79%</t>
+          <t>-48,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,81%</t>
+          <t>-18,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,66</t>
+          <t>-5,19; -2,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -2,28</t>
+          <t>-4,85; 0,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -2,36</t>
+          <t>-2,7; 0,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,32; -7,81</t>
+          <t>-60,61; -34,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,85; -33,96</t>
+          <t>-67,72; -5,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,4; -33,47</t>
+          <t>-37,19; 7,35</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-66,32%</t>
+          <t>-38,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-57,79%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,94%</t>
+          <t>-59,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; -2,29</t>
+          <t>-2,42; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,58</t>
+          <t>-5,82; -1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,23</t>
+          <t>-4,58; -1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-80,98; -40,84</t>
+          <t>-69,9; 16,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,25; -31,81</t>
+          <t>-73,44; -23,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 18,01</t>
+          <t>-78,84; -27,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-35,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-14,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,88%</t>
+          <t>-11,45%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,78</t>
+          <t>-3,76; -1,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,41</t>
+          <t>-3,04; 1,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -1,42</t>
+          <t>-2,18; 0,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -8,05</t>
+          <t>-45,67; -21,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -5,04</t>
+          <t>-39,65; 22,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,06; -21,67</t>
+          <t>-26,24; 4,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,38</t>
+          <t>-7,6; 1,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,24</t>
+          <t>-1,26; 8,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 18,31</t>
+          <t>-40,41; 8,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 75,42</t>
+          <t>-7,23; 74,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-48,87%</t>
+          <t>-48,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -2,51</t>
+          <t>-5,03; -2,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,25</t>
+          <t>-5,03; 0,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,61; -34,45</t>
+          <t>-60,64; -34,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,72; -5,73</t>
+          <t>-69,01; -5,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,71%</t>
+          <t>-44,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,25</t>
+          <t>-2,65; 0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,23</t>
+          <t>-5,7; -0,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 16,76</t>
+          <t>-72,02; 26,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,44; -23,13</t>
+          <t>-75,25; -20,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>-38,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -1,59</t>
+          <t>-3,74; -1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,43</t>
+          <t>-3,03; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; -21,91</t>
+          <t>-48,16; -26,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 22,65</t>
+          <t>-38,32; 26,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-3,33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-21,35%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,94%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,19; 8,54</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 5,67</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-7,6; 1,03</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 8,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 5,67</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-6,46; 74,07</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-17,01; 38,5</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-40,41; 8,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 74,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 38,5</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,61</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-45,13%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-18,08%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-48,5%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-46,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-18,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,88; -1,54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 0,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,03; -2,37</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 0,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 0,4</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-58,9; -24,45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-37,19; 7,35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-60,64; -34,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-69,01; -5,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-37,19; 7,35</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-1,16</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-52,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-59,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-44,68%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-54,84%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,48; -0,8</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; -1,12</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-2,65; 0,23</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; -0,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; -1,12</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-72,89; -16,46</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-78,84; -27,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-72,02; 26,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-75,25; -20,08</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-78,84; -27,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,76</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-15,36%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-11,45%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-38,35%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-14,93%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-11,45%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,55; 0,13</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 0,34</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-3,74; -1,73</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 1,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 0,34</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-29,24; 2,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 4,77</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-48,16; -26,54</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,32; 26,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 4,77</t>
         </is>
       </c>
     </row>
